--- a/modelagem/Resultados_2018 1ª abordagem/12. Dezembro/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/12. Dezembro/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,13 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7636980449996063</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6747108370306469</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4252109875127296</v>
+        <v>0.08908681820629091</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.233453140356385</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9840638785989764</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.629475886453851</v>
+        <v>0.073847790915287</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1086193211217924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>105634921764096.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1201041630316114</v>
+        <v>0.1526603102827916</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.163019889035472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.930906915807281</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.120578672705691</v>
+        <v>0.1709904755517455</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.646337258529045</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.491385337871454</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.381205900499924</v>
+        <v>0.1827565327990379</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.593339664306536</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.067741589254176</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.188098756015189</v>
+        <v>0.0801523768058279</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.404963187094521</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3864667194788285</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6333775308657937</v>
+        <v>0.1239452301300739</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7330283382267726</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.407995961963249</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7779160011498489</v>
+        <v>0.1512112964204572</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1165716494287218</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6566964636880.459</v>
-      </c>
-      <c r="D10" t="n">
-        <v>601812477814601.4</v>
+        <v>0.03282093573190539</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1147823291905509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>218166761412500.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>54075270061648.8</v>
+        <v>0.1593496040621577</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6507807281982232</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4364602280082299</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9201000753648467</v>
+        <v>0.06579174681577818</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.114213923375235</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.937240864689762</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.198168677069721</v>
+        <v>0.1139953194218584</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>155676331199002.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>203138545456181.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1049710648416148</v>
+        <v>0.1223198389050319</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3474332030709664</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5859593172741447</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.435479292919628</v>
+        <v>0.06454339248122358</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.442576790276913</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.545351306625043</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.855933575931219</v>
+        <v>0.1298737755520895</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.39247896890336</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.820969753502963</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.682696199467674</v>
+        <v>0.1139236965781596</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9277308006274244</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6290454201737246</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.112844344835668</v>
+        <v>0.1255514148117107</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415054462709224</v>
-      </c>
-      <c r="C19" t="n">
-        <v>77516373472269.17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>400562871138338.1</v>
+        <v>0.1900152520890281</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217055053631703.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>237203867524688.9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>524065624182999.5</v>
+        <v>0.1986760831349294</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.316797953596784</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.216839466714677</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.535934715580452</v>
+        <v>0.1637849032400401</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4661835843556688</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6109532368429029</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9349278945204391</v>
+        <v>0.05129140142111775</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2927994207889388</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2515996900444181</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.354543651802136</v>
+        <v>0.1044830966678715</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.432500360498752</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4577388629110976</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6285979028200126</v>
+        <v>0.1281061638916026</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>393379376467599.1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>191315952710967.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>988617833658009.5</v>
+        <v>0.1473005242653464</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5493140819010681</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.4436695046040025</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.4842964335458212</v>
+        <v>0.1635135182251203</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3944614639818484</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3433825034885422</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3356392365823774</v>
+        <v>0.2103045470411266</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5350336746060503</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.3542508327910177</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.3317594263245852</v>
+        <v>0.1460096336067646</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8434737263786837</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.4174161740236982</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.3128776148317758</v>
+        <v>0.1209867017146203</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9808236954911533</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5838770417568309</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.374327919291341</v>
+        <v>0.1040137024753276</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.7833777567047</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.218951438575807</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.653774096922105</v>
+        <v>0.1115242124066085</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4511647129097085</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.453508700014635</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6791067519805778</v>
+        <v>0.07791210882819437</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.57754253573118</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.711435164429631</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8.775688379403785</v>
+        <v>0.1558566196079559</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.439860434985307</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.111635434446669</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.962147842511541</v>
+        <v>0.1339774892251737</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6369340153417306</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.9082923561772943</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8017081944732104</v>
+        <v>0.1277666901991311</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.269468947128474</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.2955521500847491</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.2913537341420855</v>
+        <v>0.1707190970945093</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4953147228595433</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.3685662491507556</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.3942266433899604</v>
+        <v>0.1838645101912513</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.838440108814209</v>
-      </c>
-      <c r="C38" t="n">
-        <v>5.406594929755369</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.367895290381982</v>
+        <v>0.1376169827007315</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.902076919280359</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3.219396136907939</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.193311606679791</v>
+        <v>0.115723116099571</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>242316958098701.1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>218166761412499.8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>54075270061648.48</v>
+        <v>0.157422856764971</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.391616495213791</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.890714776380723</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.539768663405098</v>
+        <v>0.1771027027349692</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.124247787572931</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.298385770879716</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.978823543872173</v>
+        <v>0.1713116247251736</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.629452795943306</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.490061249158559</v>
-      </c>
-      <c r="D43" t="n">
-        <v>9.325143208954609</v>
+        <v>0.1697879305271839</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7184642234074827</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.8279325488253571</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.003260966321346</v>
+        <v>0.2016629710383538</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>250245912257943.6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>102562411143186</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1166107992687336</v>
+        <v>0.1483470537409141</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.483036620240176</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3824133333376388</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4447925502689336</v>
+        <v>0.1807544085854751</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>185646165900587.2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>146746265618054.2</v>
-      </c>
-      <c r="D47" t="n">
-        <v>758305680317467.8</v>
+        <v>0.1796265233317305</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.186490255564442</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.036906002281031</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.736666018212277</v>
+        <v>0.09414880448286551</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20.65164369196642</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7.151691767760899</v>
-      </c>
-      <c r="D49" t="n">
-        <v>16.99766879637442</v>
+        <v>0.165393995284736</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.807245102568104</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.798840153508199</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.664673592511946</v>
+        <v>0.1843236760079963</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4160580472356538</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.3414554549837553</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.7597367509434093</v>
+        <v>0.01765988241142161</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3938742875983464</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.6004067180609649</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.7433058690364898</v>
+        <v>0.1816630800195785</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5252949928877824</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.6493326699040189</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5636180216760049</v>
+        <v>0.156781724664439</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.736562805410469</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.3742240680197868</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.4693424785311349</v>
+        <v>0.1419925333806114</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8225862444533768</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.3690989363863231</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.456161563129656</v>
+        <v>0.1774754938728921</v>
       </c>
     </row>
   </sheetData>
